--- a/gdp.xlsx
+++ b/gdp.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42012422612.3955</v>
+        <v>61756878990.3</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46649487320.4225</v>
+        <v>66806595974.7159</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52413872628.0045</v>
+        <v>74888595285.8833</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60035924617.9277</v>
+        <v>83957182115.028</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65720771779.4768</v>
+        <v>93079224076.2648</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70717012186.1774</v>
+        <v>100522559916.017</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>76622444787.3696</v>
+        <v>108928356518.505</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>84401995573.24561</v>
+        <v>117751396249.071</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>91485448147.84</v>
+        <v>128427504709.055</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>100996667239.335</v>
+        <v>140361802781.576</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>113656669764.56</v>
+        <v>146926998937.05</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>124959712858.926</v>
+        <v>164238872972.653</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>145594833997.344</v>
+        <v>201621751625.488</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>175896529392.229</v>
+        <v>262343828815.557</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>200024444775.231</v>
+        <v>283102178123.295</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>228220643534.994</v>
+        <v>356780728162.766</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>225235205861.828</v>
+        <v>368488292816.171</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>258190019749.835</v>
+        <v>406736454934.474</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>315784469541.41</v>
+        <v>501724418604.651</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>394584507107.9</v>
+        <v>608218624730.188</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>478356755595.749</v>
+        <v>694529183483.39</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>431695533980.583</v>
+        <v>609184791792.396</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>428257421617.752</v>
+        <v>578152310609.8409</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>444063496940.337</v>
+        <v>553356312935.709</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>438896930791.272</v>
+        <v>525033325827.516</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>453259761687.456</v>
+        <v>547220981165.134</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>641862313287.4399</v>
+        <v>764946585850.933</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>807570134448.76</v>
+        <v>926320855614.973</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>893663934840.821</v>
+        <v>1010827662151.75</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>930801709003.6689</v>
+        <v>1016742237302.08</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1183945130898.51</v>
+        <v>1257649439826.53</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1249092439519.28</v>
+        <v>1258961748633.88</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1323204350353.5</v>
+        <v>1389663073110.28</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1067412587670.73</v>
+        <v>1314383368079.69</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1101750159702.21</v>
+        <v>1385822778827.98</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1177369428265.78</v>
+        <v>1595219345511.89</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1314776508972.27</v>
+        <v>1598889216566.23</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1244988176443.84</v>
+        <v>1449392222971.45</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1272729786996.77</v>
+        <v>1496906382032.47</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1255004736463.98</v>
+        <v>1486915879701.93</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1149661363439.38</v>
+        <v>1360959069477.49</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1172041488805.87</v>
+        <v>1370376677298.86</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1281746271196.04</v>
+        <v>1492427756382.43</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1582930016538.82</v>
+        <v>1835095983049.09</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1812808753294.75</v>
+        <v>2109792297237.03</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1864982261286.85</v>
+        <v>2192146403028.17</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1958563654385.64</v>
+        <v>2317861544690.82</v>
       </c>
     </row>
     <row r="49">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2222524108127.65</v>
+        <v>2655816911866.56</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2417508414187.19</v>
+        <v>2926802941585.86</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2209484319012.65</v>
+        <v>2700075882518.98</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2144936254535</v>
+        <v>2646230027988.34</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2306974020278.21</v>
+        <v>2870408553990.28</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2097929495121.68</v>
+        <v>2683007095787.23</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2153225581941.46</v>
+        <v>2816077607875.26</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2173255507985.84</v>
+        <v>2861236112552.42</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1845428048839.1</v>
+        <v>2442483452642.5</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1887111188176.93</v>
+        <v>2470407619777.13</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1970720904584.71</v>
+        <v>2588868323334.71</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2099435266458.67</v>
+        <v>2781576320884.39</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2019606796583.53</v>
+        <v>2722793515171.76</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1907481094079.23</v>
+        <v>2647926055110.05</v>
       </c>
     </row>
     <row r="63">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2179207773596.09</v>
+        <v>2966433692008.09</v>
       </c>
     </row>
     <row r="64">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2104067630319.46</v>
+        <v>2796302210398.84</v>
       </c>
     </row>
     <row r="65">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2304605139862.79</v>
+        <v>3051831611384.76</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2372774547793.12</v>
+        <v>3162079073495.78</v>
       </c>
     </row>
   </sheetData>
